--- a/九科/地理.xlsx
+++ b/九科/地理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="初中地理" sheetId="2" r:id="rId1"/>
@@ -477,10 +477,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,8 +496,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -510,16 +511,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,6 +573,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -541,30 +588,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,6 +603,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -587,7 +620,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,55 +639,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -686,13 +679,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,7 +703,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,37 +763,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,115 +841,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,17 +911,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -966,6 +944,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -981,11 +974,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -995,21 +994,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1024,63 +1008,54 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1089,97 +1064,97 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1211,12 +1186,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1612,8 +1587,8 @@
   <sheetPr/>
   <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7:W23"/>
+    <sheetView tabSelected="1" topLeftCell="O12" workbookViewId="0">
+      <selection activeCell="AJ34" sqref="AJ34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" customHeight="1"/>
@@ -2242,7 +2217,9 @@
       <c r="Z6" s="5">
         <v>100</v>
       </c>
-      <c r="AA6" s="5"/>
+      <c r="AA6" s="5">
+        <v>313</v>
+      </c>
       <c r="AB6" s="5">
         <v>29</v>
       </c>
@@ -5865,8 +5842,8 @@
   <sheetPr/>
   <dimension ref="A1:AL92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AJ32" sqref="AJ32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -7684,7 +7661,7 @@
         <v>28</v>
       </c>
       <c r="AA17" s="9">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="AB17" s="9">
         <v>203</v>
@@ -7792,7 +7769,7 @@
         <v>98</v>
       </c>
       <c r="AA18" s="9">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="AB18" s="9">
         <v>200</v>
@@ -7900,7 +7877,7 @@
         <v>10</v>
       </c>
       <c r="AA19" s="9">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="AB19" s="9">
         <v>210</v>
@@ -8008,7 +7985,7 @@
         <v>55</v>
       </c>
       <c r="AA20" s="9">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="AB20" s="9">
         <v>221</v>
@@ -8116,7 +8093,7 @@
         <v>10</v>
       </c>
       <c r="AA21" s="9">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="AB21" s="9">
         <v>225</v>
@@ -8224,7 +8201,7 @@
         <v>20</v>
       </c>
       <c r="AA22" s="9">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="AB22" s="9">
         <v>263</v>
@@ -8332,7 +8309,7 @@
         <v>370</v>
       </c>
       <c r="AA23" s="9">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="AB23" s="9">
         <v>268</v>
@@ -8440,7 +8417,7 @@
         <v>750</v>
       </c>
       <c r="AA24" s="9">
-        <v>226</v>
+        <v>123</v>
       </c>
       <c r="AB24" s="9">
         <v>226</v>
@@ -8548,7 +8525,7 @@
         <v>199</v>
       </c>
       <c r="AA25" s="9">
-        <v>225</v>
+        <v>141</v>
       </c>
       <c r="AB25" s="9">
         <v>225</v>
@@ -8655,7 +8632,7 @@
       <c r="Z26" s="5">
         <v>0</v>
       </c>
-      <c r="AA26" s="13">
+      <c r="AA26" s="5">
         <v>0</v>
       </c>
       <c r="AB26" s="13">
@@ -8764,7 +8741,7 @@
         <v>230</v>
       </c>
       <c r="AA27" s="9">
-        <v>225</v>
+        <v>115</v>
       </c>
       <c r="AB27" s="9">
         <v>225</v>
@@ -8872,7 +8849,7 @@
         <v>256</v>
       </c>
       <c r="AA28" s="9">
-        <v>254</v>
+        <v>121</v>
       </c>
       <c r="AB28" s="9">
         <v>254</v>
@@ -8980,7 +8957,7 @@
         <v>255</v>
       </c>
       <c r="AA29" s="9">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="AB29" s="9">
         <v>241</v>
